--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.011620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.011620.xlsx_with_dialog_acts.xlsx
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4277,12 +4277,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4429,12 +4429,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4467,12 +4467,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5073,12 +5073,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5415,12 +5415,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5453,12 +5453,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5491,12 +5491,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5567,12 +5567,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5909,12 +5909,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6137,12 +6137,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6289,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
